--- a/biology/Microbiologie/TACK/TACK.xlsx
+++ b/biology/Microbiologie/TACK/TACK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les TACK[1] (acronyme de Thaumarchaeota, Aigarchaeota, Crenarchaeota et Korarchaeota) ou Filarchaeota[2] sont un super-embranchement d'archées[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les TACK (acronyme de Thaumarchaeota, Aigarchaeota, Crenarchaeota et Korarchaeota) ou Filarchaeota sont un super-embranchement d'archées.
 Ils vivent dans différents milieux favorisant des microorganismes allant de thermophiles acidophiles à mésophiles et même psychrophiles, avec différents métabolismes, principalement anaérobie et chimiosynthétique.
 Les TACK sont le groupe frère des Eukaryomorpha.
 </t>
@@ -513,7 +525,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le super-embranchement TACK a été créé en 2011 par les microbiologistes Lionel Guy (d) et Thijs Ettema (d) de l'université d'Uppsala.
 </t>
@@ -544,9 +558,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Tom A. Williams et al., 2017[3] et Castelle &amp; Banfield, 2018[4] (DPANN) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Tom A. Williams et al., 2017 et Castelle &amp; Banfield, 2018 (DPANN) :
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Lionel Guy et Thijs J. G. Ettema, « The archaeal 'TACK' superphylum and the origin of eukaryotes », Trends in Microbiology, Elsevier, vol. 19, no 12,‎ 20 octobre 2011, p. 580-587 (ISSN 0966-842X et 1878-4380, PMID 22018741, DOI 10.1016/J.TIM.2011.09.002)</t>
         </is>
